--- a/src/test/resources/excel/template/multi.xlsx
+++ b/src/test/resources/excel/template/multi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF18116-77BF-4B9D-8720-F22817AB5E2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFC493AB-152A-4B56-AD65-5A0D740B6D67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="複数シート出力テンプレート" sheetId="1" r:id="rId1"/>
+    <sheet name="複数シート出力テンプレート" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">複数シート出力テンプレート!$A$1:$G$24</definedName>
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D0571C5D-2F57-42EE-AE69-A1E887FC8EC8}">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{D05043F2-D859-4D26-AE95-F234E2E004B0}">
       <text>
         <r>
           <rPr>
@@ -120,86 +120,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.price}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${item.count}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品リスト</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.text}</t>
+  </si>
+  <si>
+    <t>${app.text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${app.title} 申込書</t>
+    <rPh sb="13" eb="16">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単価</t>
     <rPh sb="0" eb="2">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${item.code}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>${item.name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${item.count}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品リスト</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.text}</t>
-  </si>
-  <si>
-    <t>${app.text}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${app.title} 申込書</t>
-    <rPh sb="13" eb="16">
-      <t>モウシコミショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -227,12 +227,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -249,12 +243,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -385,7 +385,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -399,8 +399,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -417,12 +417,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -447,68 +447,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>803413</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5928587D-9289-43FD-84C8-6A3C0BE2209C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>本シートは保護シートです。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -524,10 +462,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1158" name="図 3">
+        <xdr:cNvPr id="2" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B4442A-1DAF-4308-BC17-0713499D3957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76EF7EA-087A-41BB-A132-F0AC4FD2DA98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,6 +519,80 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1424608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267D9F65-6B86-4DC7-9F3B-D4B2E3743FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553074" y="1516960"/>
+          <a:ext cx="2348534" cy="605872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>本シートは保護シートです。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -874,11 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA03CB3-5D69-4FDC-A2B4-4F8F1927CB5B}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -894,7 +906,7 @@
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -904,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -920,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -936,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -944,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -955,38 +967,38 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" thickBot="1">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="15" t="e">
         <f>D12*E12</f>
@@ -1015,7 +1027,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/src/test/resources/excel/template/multi.xlsx
+++ b/src/test/resources/excel/template/multi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFC493AB-152A-4B56-AD65-5A0D740B6D67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8BCE1-A621-4FC3-A90F-8BEDA6590084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="複数シート出力テンプレート" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">複数シート出力テンプレート!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,7 +48,7 @@
             <charset val="128"/>
           </rPr>
           <t>jx:area(lastCell="G24")
-jx:each(items="appList" var="app" lastCell="G24" multisheet="appTitleList")</t>
+jx:each(items="inputEntity.appList" var="app" lastCell="G24" multisheet="app.title")</t>
         </r>
       </text>
     </comment>
@@ -889,18 +902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA03CB3-5D69-4FDC-A2B4-4F8F1927CB5B}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
@@ -987,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
